--- a/Code/Results/Cases/Case_6_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_6/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.130851844130405</v>
+        <v>5.130851844130291</v>
       </c>
       <c r="C2">
-        <v>0.8111032469679742</v>
+        <v>0.8111032469677468</v>
       </c>
       <c r="D2">
         <v>0.06939121110688973</v>
       </c>
       <c r="E2">
-        <v>0.01785111196662736</v>
+        <v>0.01785111196660072</v>
       </c>
       <c r="F2">
-        <v>2.782016439480344</v>
+        <v>2.782016439480259</v>
       </c>
       <c r="G2">
-        <v>0.0007903094504737903</v>
+        <v>0.0007903094503583936</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3726932731976262</v>
+        <v>0.3726932731977541</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.184564965419398</v>
+        <v>1.184564965419298</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.446284463628729</v>
+        <v>4.446284463628842</v>
       </c>
       <c r="C3">
-        <v>0.6971631324287841</v>
+        <v>0.6971631324287557</v>
       </c>
       <c r="D3">
-        <v>0.06897445523070189</v>
+        <v>0.06897445523091505</v>
       </c>
       <c r="E3">
-        <v>0.0179225846110258</v>
+        <v>0.01792258461102625</v>
       </c>
       <c r="F3">
         <v>2.49528102785807</v>
       </c>
       <c r="G3">
-        <v>0.0008009458266214908</v>
+        <v>0.0008009458266801681</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3260646108691247</v>
+        <v>0.3260646108690679</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.213139730429845</v>
+        <v>1.213139730429916</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.035517054002412</v>
+        <v>4.035517054002298</v>
       </c>
       <c r="C4">
-        <v>0.62848557257675</v>
+        <v>0.6284855725770058</v>
       </c>
       <c r="D4">
-        <v>0.06890339217536479</v>
+        <v>0.06890339217526531</v>
       </c>
       <c r="E4">
-        <v>0.01798366161289744</v>
+        <v>0.01798366161292808</v>
       </c>
       <c r="F4">
-        <v>2.326245066443917</v>
+        <v>2.326245066443931</v>
       </c>
       <c r="G4">
-        <v>0.0008076246986269349</v>
+        <v>0.0008076246986246559</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.2981825195822836</v>
+        <v>0.298182519582241</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.870201743814334</v>
+        <v>3.870201743814391</v>
       </c>
       <c r="C5">
-        <v>0.6007670365722788</v>
+        <v>0.6007670365725062</v>
       </c>
       <c r="D5">
-        <v>0.06891678465422046</v>
+        <v>0.06891678465424178</v>
       </c>
       <c r="E5">
-        <v>0.01801268566876013</v>
+        <v>0.01801268566876457</v>
       </c>
       <c r="F5">
         <v>2.258925308176728</v>
       </c>
       <c r="G5">
-        <v>0.0008103864265512333</v>
+        <v>0.0008103864265537331</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.2869847154053957</v>
+        <v>0.2869847154054099</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.241483710760136</v>
+        <v>1.241483710760107</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.842867661703963</v>
+        <v>3.842867661704076</v>
       </c>
       <c r="C6">
-        <v>0.5961791080058845</v>
+        <v>0.5961791080059129</v>
       </c>
       <c r="D6">
-        <v>0.06892145434009223</v>
+        <v>0.06892145434007801</v>
       </c>
       <c r="E6">
-        <v>0.01801774968412717</v>
+        <v>0.01801774968409786</v>
       </c>
       <c r="F6">
         <v>2.247835847454496</v>
       </c>
       <c r="G6">
-        <v>0.0008108475040130084</v>
+        <v>0.0008108475038959079</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.2851346068205487</v>
+        <v>0.2851346068205061</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.242938013166693</v>
+        <v>1.242938013166764</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.03327955903211</v>
+        <v>4.033279559032167</v>
       </c>
       <c r="C7">
-        <v>0.6281107327353368</v>
+        <v>0.6281107327346547</v>
       </c>
       <c r="D7">
-        <v>0.06890340643337112</v>
+        <v>0.06890340643358428</v>
       </c>
       <c r="E7">
-        <v>0.01798403653470482</v>
+        <v>0.01798403653466885</v>
       </c>
       <c r="F7">
-        <v>2.325331088818956</v>
+        <v>2.32533108881897</v>
       </c>
       <c r="G7">
-        <v>0.0008076617787300548</v>
+        <v>0.0008076617786719536</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.2980308661964983</v>
+        <v>0.2980308661964699</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.233021687651345</v>
+        <v>1.233021687651373</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.892620423582741</v>
+        <v>4.892620423582684</v>
       </c>
       <c r="C8">
         <v>0.7715160557287675</v>
       </c>
       <c r="D8">
-        <v>0.06920652052011178</v>
+        <v>0.06920652051998388</v>
       </c>
       <c r="E8">
-        <v>0.01787206732180868</v>
+        <v>0.01787206732181179</v>
       </c>
       <c r="F8">
         <v>2.681564842712135</v>
       </c>
       <c r="G8">
-        <v>0.0007939479063609321</v>
+        <v>0.0007939479063614165</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3564453701830672</v>
+        <v>0.356445370183053</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.670497487014529</v>
+        <v>6.670497487014643</v>
       </c>
       <c r="C9">
-        <v>1.065705974593385</v>
+        <v>1.065705974593584</v>
       </c>
       <c r="D9">
-        <v>0.07148146282996493</v>
+        <v>0.07148146282983703</v>
       </c>
       <c r="E9">
-        <v>0.01779865792085733</v>
+        <v>0.01779865792082891</v>
       </c>
       <c r="F9">
         <v>3.446192023791781</v>
       </c>
       <c r="G9">
-        <v>0.0007680874458574786</v>
+        <v>0.0007680874459258702</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.478149534350166</v>
+        <v>0.4781495343503366</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.136926902128835</v>
+        <v>1.136926902128849</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.06051737170668</v>
+        <v>8.060517371706396</v>
       </c>
       <c r="C10">
-        <v>1.294309444433054</v>
+        <v>1.294309444432258</v>
       </c>
       <c r="D10">
-        <v>0.07452865136032472</v>
+        <v>0.07452865136018971</v>
       </c>
       <c r="E10">
-        <v>0.01784975698860247</v>
+        <v>0.01784975698849678</v>
       </c>
       <c r="F10">
-        <v>4.064971354801344</v>
+        <v>4.064971354801315</v>
       </c>
       <c r="G10">
-        <v>0.000749487581100896</v>
+        <v>0.0007494875810489381</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.5738937327554652</v>
+        <v>0.5738937327555078</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.110282342682623</v>
+        <v>1.110282342682595</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.71847863798871</v>
+        <v>8.718478637988596</v>
       </c>
       <c r="C11">
-        <v>1.402257386624228</v>
+        <v>1.402257386624512</v>
       </c>
       <c r="D11">
-        <v>0.07631120988625639</v>
+        <v>0.07631120988648377</v>
       </c>
       <c r="E11">
-        <v>0.01790020613089549</v>
+        <v>0.0179002061308946</v>
       </c>
       <c r="F11">
-        <v>4.363395441317152</v>
+        <v>4.363395441317124</v>
       </c>
       <c r="G11">
-        <v>0.0007410509576138596</v>
+        <v>0.000741050957612903</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6193567232046604</v>
+        <v>0.6193567232047599</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.102359187513272</v>
+        <v>1.102359187513287</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.972066111497611</v>
+        <v>8.972066111498066</v>
       </c>
       <c r="C12">
-        <v>1.443829756404114</v>
+        <v>1.443829756404682</v>
       </c>
       <c r="D12">
-        <v>0.07705331460910259</v>
+        <v>0.07705331460915943</v>
       </c>
       <c r="E12">
-        <v>0.01792367424288432</v>
+        <v>0.01792367424290742</v>
       </c>
       <c r="F12">
-        <v>4.479297177848622</v>
+        <v>4.47929717784865</v>
       </c>
       <c r="G12">
-        <v>0.0007378535341161082</v>
+        <v>0.0007378535341140417</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6369005004166439</v>
+        <v>0.6369005004166297</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.917241098791237</v>
+        <v>8.917241098791465</v>
       </c>
       <c r="C13">
-        <v>1.434843242414502</v>
+        <v>1.434843242414274</v>
       </c>
       <c r="D13">
-        <v>0.076890323413771</v>
+        <v>0.07689032341392021</v>
       </c>
       <c r="E13">
-        <v>0.01791841773638492</v>
+        <v>0.01791841773638581</v>
       </c>
       <c r="F13">
-        <v>4.454198707979629</v>
+        <v>4.454198707979685</v>
       </c>
       <c r="G13">
-        <v>0.0007385423850092531</v>
+        <v>0.000738542385009437</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6331065959719666</v>
+        <v>0.6331065959721656</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.100517500759594</v>
+        <v>1.10051750075958</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,19 +988,19 @@
         <v>8.739247867133827</v>
       </c>
       <c r="C14">
-        <v>1.40566284034179</v>
+        <v>1.405662840342359</v>
       </c>
       <c r="D14">
-        <v>0.07637085393260179</v>
+        <v>0.07637085393266574</v>
       </c>
       <c r="E14">
-        <v>0.01790204650497529</v>
+        <v>0.01790204650497262</v>
       </c>
       <c r="F14">
-        <v>4.372869802631385</v>
+        <v>4.372869802631413</v>
       </c>
       <c r="G14">
-        <v>0.0007407879962329228</v>
+        <v>0.0007407879962865073</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6207931481488771</v>
+        <v>0.620793148149005</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.102154991349551</v>
+        <v>1.102154991349536</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.630823405364254</v>
+        <v>8.630823405364026</v>
       </c>
       <c r="C15">
-        <v>1.387883622516824</v>
+        <v>1.387883622516711</v>
       </c>
       <c r="D15">
-        <v>0.07606173348349898</v>
+        <v>0.0760617334836553</v>
       </c>
       <c r="E15">
-        <v>0.01789260187200981</v>
+        <v>0.01789260187201336</v>
       </c>
       <c r="F15">
-        <v>4.323445538627112</v>
+        <v>4.323445538627084</v>
       </c>
       <c r="G15">
-        <v>0.0007421629499881899</v>
+        <v>0.0007421629499138049</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6132952588685328</v>
+        <v>0.6132952588687743</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.103251436002466</v>
+        <v>1.103251436002481</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.018094715477787</v>
+        <v>8.018094715477901</v>
       </c>
       <c r="C16">
-        <v>1.287344651213061</v>
+        <v>1.287344651213289</v>
       </c>
       <c r="D16">
-        <v>0.07442095269229299</v>
+        <v>0.07442095269227877</v>
       </c>
       <c r="E16">
-        <v>0.01784704420330208</v>
+        <v>0.01784704420329586</v>
       </c>
       <c r="F16">
         <v>4.045846944800729</v>
       </c>
       <c r="G16">
-        <v>0.0007500389231083273</v>
+        <v>0.0007500389231238704</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.5709653894382996</v>
+        <v>0.5709653894384843</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.110892019004169</v>
+        <v>1.110892019004197</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.649262324461347</v>
+        <v>7.649262324461233</v>
       </c>
       <c r="C17">
-        <v>1.226763118864994</v>
+        <v>1.226763118864937</v>
       </c>
       <c r="D17">
-        <v>0.07352250873315569</v>
+        <v>0.07352250873335464</v>
       </c>
       <c r="E17">
-        <v>0.01782635995610971</v>
+        <v>0.01782635995617277</v>
       </c>
       <c r="F17">
-        <v>3.880190007010839</v>
+        <v>3.880190007010867</v>
       </c>
       <c r="G17">
-        <v>0.000754872784664018</v>
+        <v>0.0007548727846453531</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.5455214676926659</v>
+        <v>0.5455214676926516</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.116714197321983</v>
+        <v>1.116714197321969</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,19 +1176,19 @@
         <v>7.439481030625473</v>
       </c>
       <c r="C18">
-        <v>1.192281758681077</v>
+        <v>1.19228175868102</v>
       </c>
       <c r="D18">
-        <v>0.07304235225274169</v>
+        <v>0.0730423522526138</v>
       </c>
       <c r="E18">
-        <v>0.01781699201424125</v>
+        <v>0.01781699201425546</v>
       </c>
       <c r="F18">
-        <v>3.786471104526697</v>
+        <v>3.786471104526669</v>
       </c>
       <c r="G18">
-        <v>0.0007576558309546385</v>
+        <v>0.0007576558310142248</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5310627438248758</v>
+        <v>0.5310627438249185</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.120451760169345</v>
+        <v>1.12045176016936</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.368837576369344</v>
+        <v>7.368837576369174</v>
       </c>
       <c r="C19">
-        <v>1.180665913968255</v>
+        <v>1.180665913968085</v>
       </c>
       <c r="D19">
-        <v>0.07288578912171317</v>
+        <v>0.07288578912170607</v>
       </c>
       <c r="E19">
-        <v>0.01781424210876725</v>
+        <v>0.01781424210876281</v>
       </c>
       <c r="F19">
-        <v>3.754995139757057</v>
+        <v>3.754995139757114</v>
       </c>
       <c r="G19">
-        <v>0.0007585987645078504</v>
+        <v>0.0007585987643776715</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5261960024614041</v>
+        <v>0.5261960024613899</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.121781494770516</v>
+        <v>1.121781494770445</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.688275777903129</v>
+        <v>7.688275777903243</v>
       </c>
       <c r="C20">
-        <v>1.233173659435693</v>
+        <v>1.233173659435863</v>
       </c>
       <c r="D20">
-        <v>0.07361429409722575</v>
+        <v>0.07361429409721154</v>
       </c>
       <c r="E20">
-        <v>0.01782829706653644</v>
+        <v>0.0178282970665693</v>
       </c>
       <c r="F20">
-        <v>3.897659673746318</v>
+        <v>3.897659673746375</v>
       </c>
       <c r="G20">
-        <v>0.0007543579700806519</v>
+        <v>0.0007543579701523493</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.5482114481247464</v>
+        <v>0.548211448124718</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1317,19 +1317,19 @@
         <v>8.791401912608649</v>
       </c>
       <c r="C21">
-        <v>1.414213854355125</v>
+        <v>1.414213854355353</v>
       </c>
       <c r="D21">
-        <v>0.07652152376366672</v>
+        <v>0.07652152376346066</v>
       </c>
       <c r="E21">
-        <v>0.01790673265821496</v>
+        <v>0.01790673265826115</v>
       </c>
       <c r="F21">
-        <v>4.396675434610358</v>
+        <v>4.396675434610302</v>
       </c>
       <c r="G21">
-        <v>0.0007401285327372353</v>
+        <v>0.0007401285326853725</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6244005332217029</v>
+        <v>0.6244005332216886</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.101654362732148</v>
+        <v>1.101654362732162</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.538638567607222</v>
+        <v>9.538638567607336</v>
       </c>
       <c r="C22">
-        <v>1.536660371176595</v>
+        <v>1.53666037117631</v>
       </c>
       <c r="D22">
-        <v>0.07881880561044596</v>
+        <v>0.07881880561024701</v>
       </c>
       <c r="E22">
-        <v>0.01798370863310694</v>
+        <v>0.01798370863311316</v>
       </c>
       <c r="F22">
         <v>4.739961639970232</v>
       </c>
       <c r="G22">
-        <v>0.0007308095762914766</v>
+        <v>0.0007308095761850537</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.6761379686066959</v>
+        <v>0.6761379686066391</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.096347100521541</v>
+        <v>1.096347100521527</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,19 +1411,19 @@
         <v>9.137137087570522</v>
       </c>
       <c r="C23">
-        <v>1.470882822100634</v>
+        <v>1.470882822101203</v>
       </c>
       <c r="D23">
-        <v>0.07755248429398875</v>
+        <v>0.07755248429392481</v>
       </c>
       <c r="E23">
-        <v>0.01794009925671691</v>
+        <v>0.01794009925667961</v>
       </c>
       <c r="F23">
         <v>4.554999871030986</v>
       </c>
       <c r="G23">
-        <v>0.0007357873769376421</v>
+        <v>0.0007357873769608309</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6483266573874431</v>
+        <v>0.6483266573874005</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.670630794003273</v>
+        <v>7.6706307940035</v>
       </c>
       <c r="C24">
-        <v>1.230274380008268</v>
+        <v>1.230274380008439</v>
       </c>
       <c r="D24">
-        <v>0.07357268538309114</v>
+        <v>0.07357268538292772</v>
       </c>
       <c r="E24">
-        <v>0.017827413470763</v>
+        <v>0.01782741347082339</v>
       </c>
       <c r="F24">
-        <v>3.889756938170535</v>
+        <v>3.889756938170621</v>
       </c>
       <c r="G24">
-        <v>0.0007545907048088724</v>
+        <v>0.0007545907048783723</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.5469947844661931</v>
+        <v>0.5469947844662784</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.116351030020965</v>
+        <v>1.116351030021008</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.177029123619263</v>
+        <v>6.177029123619207</v>
       </c>
       <c r="C25">
-        <v>0.9843017552816775</v>
+        <v>0.9843017552819049</v>
       </c>
       <c r="D25">
-        <v>0.07065323669844048</v>
+        <v>0.07065323669822021</v>
       </c>
       <c r="E25">
         <v>0.01780137418074634</v>
       </c>
       <c r="F25">
-        <v>3.230686958306535</v>
+        <v>3.230686958306478</v>
       </c>
       <c r="G25">
-        <v>0.0007749946266080144</v>
+        <v>0.0007749946266741837</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.444273356981995</v>
+        <v>0.4442733569821229</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.149937403450267</v>
+        <v>1.149937403450195</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_6_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>5.130851844130291</v>
+        <v>3.007451676780704</v>
       </c>
       <c r="C2">
-        <v>0.8111032469677468</v>
+        <v>0.5901755469690784</v>
       </c>
       <c r="D2">
-        <v>0.06939121110688973</v>
+        <v>0.02670544609680192</v>
       </c>
       <c r="E2">
-        <v>0.01785111196660072</v>
+        <v>0.03311226125618738</v>
       </c>
       <c r="F2">
-        <v>2.782016439480259</v>
+        <v>0.9395419576661794</v>
       </c>
       <c r="G2">
-        <v>0.0007903094503583936</v>
+        <v>0.8740709704238867</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.00200663311653182</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5534071823134639</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.4987218816297556</v>
       </c>
       <c r="L2">
-        <v>0.3726932731977541</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.184564965419298</v>
+        <v>0.3370118389954087</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.7086055007362262</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>4.446284463628842</v>
+        <v>2.615784298627773</v>
       </c>
       <c r="C3">
-        <v>0.6971631324287557</v>
+        <v>0.5196432807912856</v>
       </c>
       <c r="D3">
-        <v>0.06897445523091505</v>
+        <v>0.02578558022311839</v>
       </c>
       <c r="E3">
-        <v>0.01792258461102625</v>
+        <v>0.03282936841831674</v>
       </c>
       <c r="F3">
-        <v>2.49528102785807</v>
+        <v>0.8555280660874161</v>
       </c>
       <c r="G3">
-        <v>0.0008009458266801681</v>
+        <v>0.7944400149302027</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.0007916647478665162</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.5222087447794053</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.4783855199693789</v>
       </c>
       <c r="L3">
-        <v>0.3260646108690679</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.213139730429916</v>
+        <v>0.295899373799017</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0.7398022967325097</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.035517054002298</v>
+        <v>2.375339851904414</v>
       </c>
       <c r="C4">
-        <v>0.6284855725770058</v>
+        <v>0.4766417258125273</v>
       </c>
       <c r="D4">
-        <v>0.06890339217526531</v>
+        <v>0.02522144106124813</v>
       </c>
       <c r="E4">
-        <v>0.01798366161292808</v>
+        <v>0.03268083637267871</v>
       </c>
       <c r="F4">
-        <v>2.326245066443931</v>
+        <v>0.8050668859700778</v>
       </c>
       <c r="G4">
-        <v>0.0008076246986246559</v>
+        <v>0.7466157498394494</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.0004686403417446527</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.5037067074288615</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.4664616329015416</v>
       </c>
       <c r="L4">
-        <v>0.298182519582241</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.232908089793938</v>
+        <v>0.2710090804070973</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0.7598232595114851</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>3.870201743814391</v>
+        <v>2.275785469511789</v>
       </c>
       <c r="C5">
-        <v>0.6007670365725062</v>
+        <v>0.459654024065685</v>
       </c>
       <c r="D5">
-        <v>0.06891678465424178</v>
+        <v>0.02501923844435083</v>
       </c>
       <c r="E5">
-        <v>0.01801268566876457</v>
+        <v>0.03260676536738583</v>
       </c>
       <c r="F5">
-        <v>2.258925308176728</v>
+        <v>0.7839347191478083</v>
       </c>
       <c r="G5">
-        <v>0.0008103864265537331</v>
+        <v>0.7264368314439622</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.0005009903008890149</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4958491109816521</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.4611131050750359</v>
       </c>
       <c r="L5">
-        <v>0.2869847154054099</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.241483710760107</v>
+        <v>0.2610044267314038</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0.7683138246539372</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3.842867661704076</v>
+        <v>2.25735473003374</v>
       </c>
       <c r="C6">
-        <v>0.5961791080059129</v>
+        <v>0.4574152541804892</v>
       </c>
       <c r="D6">
-        <v>0.06892145434007801</v>
+        <v>0.02501959538437504</v>
       </c>
       <c r="E6">
-        <v>0.01801774968409786</v>
+        <v>0.03257079276021191</v>
       </c>
       <c r="F6">
-        <v>2.247835847454496</v>
+        <v>0.7794294485643576</v>
       </c>
       <c r="G6">
-        <v>0.0008108475038959079</v>
+        <v>0.7219579058162111</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.0005985218823667537</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4939774402445352</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.4594736948609679</v>
       </c>
       <c r="L6">
-        <v>0.2851346068205061</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.242938013166764</v>
+        <v>0.2594185246163789</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0.7698868616567047</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>4.033279559032167</v>
+        <v>2.368791609085065</v>
       </c>
       <c r="C7">
-        <v>0.6281107327346547</v>
+        <v>0.4779974444333845</v>
       </c>
       <c r="D7">
-        <v>0.06890340643358428</v>
+        <v>0.02531192138556193</v>
       </c>
       <c r="E7">
-        <v>0.01798403653466885</v>
+        <v>0.03261417353134277</v>
       </c>
       <c r="F7">
-        <v>2.32533108881897</v>
+        <v>0.8020129575294703</v>
       </c>
       <c r="G7">
-        <v>0.0008076617786719536</v>
+        <v>0.7432155650084837</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.0006867704655642015</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.5020250181099328</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.464313090683774</v>
       </c>
       <c r="L7">
-        <v>0.2980308661964699</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.233021687651373</v>
+        <v>0.2710669825496126</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0.7603637750038601</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>4.892620423582684</v>
+        <v>2.865391383655776</v>
       </c>
       <c r="C8">
-        <v>0.7715160557287675</v>
+        <v>0.5679056253560475</v>
       </c>
       <c r="D8">
-        <v>0.06920652051998388</v>
+        <v>0.02651430376570829</v>
       </c>
       <c r="E8">
-        <v>0.01787206732181179</v>
+        <v>0.03292262061055595</v>
       </c>
       <c r="F8">
-        <v>2.681564842712135</v>
+        <v>0.9066374529914896</v>
       </c>
       <c r="G8">
-        <v>0.0007939479063614165</v>
+        <v>0.8422098176615407</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.001744106148336755</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.5404135842877764</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.4888303949944159</v>
       </c>
       <c r="L8">
-        <v>0.356445370183053</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.193931168763825</v>
+        <v>0.3230133509528628</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0.7198145511773184</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>6.670497487014643</v>
+        <v>3.850591255062852</v>
       </c>
       <c r="C9">
-        <v>1.065705974593584</v>
+        <v>0.7443970188306253</v>
       </c>
       <c r="D9">
-        <v>0.07148146282983703</v>
+        <v>0.0287092352710161</v>
       </c>
       <c r="E9">
-        <v>0.01779865792082891</v>
+        <v>0.03385428064155604</v>
       </c>
       <c r="F9">
-        <v>3.446192023791781</v>
+        <v>1.126919980922537</v>
       </c>
       <c r="G9">
-        <v>0.0007680874459258702</v>
+        <v>1.051688111780095</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.007204234549444521</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.6242738508423002</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.5455899076972059</v>
       </c>
       <c r="L9">
-        <v>0.4781495343503366</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.136926902128849</v>
+        <v>0.4277306977711959</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0.6466120305121414</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.060517371706396</v>
+        <v>4.575268486484674</v>
       </c>
       <c r="C10">
-        <v>1.294309444432258</v>
+        <v>0.877707012469557</v>
       </c>
       <c r="D10">
-        <v>0.07452865136018971</v>
+        <v>0.03038301288423639</v>
       </c>
       <c r="E10">
-        <v>0.01784975698849678</v>
+        <v>0.03464876677844586</v>
       </c>
       <c r="F10">
-        <v>4.064971354801315</v>
+        <v>1.295326447217832</v>
       </c>
       <c r="G10">
-        <v>0.0007494875810489381</v>
+        <v>1.211750145889852</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01405915016917181</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.6894325038192335</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.5899939576089608</v>
       </c>
       <c r="L10">
-        <v>0.5738937327555078</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.110282342682595</v>
+        <v>0.5073041078426002</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0.5980184479595465</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.718478637988596</v>
+        <v>4.89727868247968</v>
       </c>
       <c r="C11">
-        <v>1.402257386624512</v>
+        <v>0.9419122251153453</v>
       </c>
       <c r="D11">
-        <v>0.07631120988648377</v>
+        <v>0.0313163454724652</v>
       </c>
       <c r="E11">
-        <v>0.0179002061308946</v>
+        <v>0.03493738943620883</v>
       </c>
       <c r="F11">
-        <v>4.363395441317124</v>
+        <v>1.369439676347497</v>
       </c>
       <c r="G11">
-        <v>0.000741050957612903</v>
+        <v>1.281422867899181</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.0181734753231515</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.717590909758087</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.6077379583329332</v>
       </c>
       <c r="L11">
-        <v>0.6193567232047599</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.102359187513287</v>
+        <v>0.5445112553277056</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0.5781473895374667</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.972066111498066</v>
+        <v>5.024224206670908</v>
       </c>
       <c r="C12">
-        <v>1.443829756404682</v>
+        <v>0.9649342722320853</v>
       </c>
       <c r="D12">
-        <v>0.07705331460915943</v>
+        <v>0.03158218559017101</v>
       </c>
       <c r="E12">
-        <v>0.01792367424290742</v>
+        <v>0.0351089224475416</v>
       </c>
       <c r="F12">
-        <v>4.47929717784865</v>
+        <v>1.400324642350967</v>
       </c>
       <c r="G12">
-        <v>0.0007378535341140417</v>
+        <v>1.310940282735288</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01969450684864604</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.7298300260904114</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.6164421818459687</v>
       </c>
       <c r="L12">
-        <v>0.6369005004166297</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.100053434318099</v>
+        <v>0.5585470662830971</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0.5702662427050988</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.917241098791465</v>
+        <v>4.997835122167828</v>
       </c>
       <c r="C13">
-        <v>1.434843242414274</v>
+        <v>0.9596795278478396</v>
       </c>
       <c r="D13">
-        <v>0.07689032341392021</v>
+        <v>0.03150694708783064</v>
       </c>
       <c r="E13">
-        <v>0.01791841773638581</v>
+        <v>0.03508320413133781</v>
       </c>
       <c r="F13">
-        <v>4.454198707979685</v>
+        <v>1.394154958851757</v>
       </c>
       <c r="G13">
-        <v>0.000738542385009437</v>
+        <v>1.305129652529502</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01932928458688998</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.7274665091943575</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.6149282172955424</v>
       </c>
       <c r="L13">
-        <v>0.6331065959721656</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.10051750075958</v>
+        <v>0.5554855466760529</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0.5718435207735268</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.739247867133827</v>
+        <v>4.908125688028974</v>
       </c>
       <c r="C14">
-        <v>1.405662840342359</v>
+        <v>0.9436802277184597</v>
       </c>
       <c r="D14">
-        <v>0.07637085393266574</v>
+        <v>0.03133058456509374</v>
       </c>
       <c r="E14">
-        <v>0.01790204650497262</v>
+        <v>0.03495626182785294</v>
       </c>
       <c r="F14">
-        <v>4.372869802631413</v>
+        <v>1.372184776204932</v>
       </c>
       <c r="G14">
-        <v>0.0007407879962865073</v>
+        <v>1.284082847376453</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01828211195118623</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.7187132655922142</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.6086069835925301</v>
       </c>
       <c r="L14">
-        <v>0.620793148149005</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.102154991349536</v>
+        <v>0.545649441106363</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0.5774480506272681</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.630823405364026</v>
+        <v>4.851319835916968</v>
       </c>
       <c r="C15">
-        <v>1.387883622516711</v>
+        <v>0.9344695728991042</v>
       </c>
       <c r="D15">
-        <v>0.0760617334836553</v>
+        <v>0.03125794222799527</v>
       </c>
       <c r="E15">
-        <v>0.01789260187201336</v>
+        <v>0.03485665459465892</v>
       </c>
       <c r="F15">
-        <v>4.323445538627084</v>
+        <v>1.357795283572628</v>
       </c>
       <c r="G15">
-        <v>0.0007421629499138049</v>
+        <v>1.270131994179621</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01772467938628708</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.7128239688806559</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.6040329097489021</v>
       </c>
       <c r="L15">
-        <v>0.6132952588687743</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.103251436002481</v>
+        <v>0.539705558335541</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0.5811231646620705</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.018094715477901</v>
+        <v>4.53838692746308</v>
       </c>
       <c r="C16">
-        <v>1.287344651213289</v>
+        <v>0.8783170628450989</v>
       </c>
       <c r="D16">
-        <v>0.07442095269227877</v>
+        <v>0.03061684157322375</v>
       </c>
       <c r="E16">
-        <v>0.01784704420329586</v>
+        <v>0.0344405113754469</v>
       </c>
       <c r="F16">
-        <v>4.045846944800729</v>
+        <v>1.282293483131397</v>
       </c>
       <c r="G16">
-        <v>0.0007500389231238704</v>
+        <v>1.197942142621798</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01434079297407642</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.6829689630534972</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.5827613398377238</v>
       </c>
       <c r="L16">
-        <v>0.5709653894384843</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.110892019004197</v>
+        <v>0.5054440130041229</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0.6011303640093857</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.649262324461233</v>
+        <v>4.346882906311862</v>
       </c>
       <c r="C17">
-        <v>1.226763118864937</v>
+        <v>0.8440781900502543</v>
       </c>
       <c r="D17">
-        <v>0.07352250873335464</v>
+        <v>0.0302231133045936</v>
       </c>
       <c r="E17">
-        <v>0.01782635995617277</v>
+        <v>0.03419513399726171</v>
       </c>
       <c r="F17">
-        <v>3.880190007010867</v>
+        <v>1.236598478942966</v>
       </c>
       <c r="G17">
-        <v>0.0007548727846453531</v>
+        <v>1.154274060997722</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01246500022610331</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.6649822932365055</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.5700054770679372</v>
       </c>
       <c r="L17">
-        <v>0.5455214676926516</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.116714197321969</v>
+        <v>0.4846104963931595</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0.6136996806072439</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.439481030625473</v>
+        <v>4.24166582401034</v>
       </c>
       <c r="C18">
-        <v>1.19228175868102</v>
+        <v>0.8230075566597748</v>
       </c>
       <c r="D18">
-        <v>0.0730423522526138</v>
+        <v>0.02990724070370376</v>
       </c>
       <c r="E18">
-        <v>0.01781699201425546</v>
+        <v>0.03411491357744723</v>
       </c>
       <c r="F18">
-        <v>3.786471104526669</v>
+        <v>1.21301468579918</v>
       </c>
       <c r="G18">
-        <v>0.0007576558310142248</v>
+        <v>1.132174004369915</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01125180671923953</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.6561534004934799</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.5646077652203161</v>
       </c>
       <c r="L18">
-        <v>0.5310627438249185</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.12045176016936</v>
+        <v>0.4725225379603017</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0.62049922218592</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.368837576369174</v>
+        <v>4.202381162057293</v>
       </c>
       <c r="C19">
-        <v>1.180665913968085</v>
+        <v>0.8170015892661127</v>
       </c>
       <c r="D19">
-        <v>0.07288578912170607</v>
+        <v>0.02986906177489246</v>
       </c>
       <c r="E19">
-        <v>0.01781424210876281</v>
+        <v>0.03404407446387481</v>
       </c>
       <c r="F19">
-        <v>3.754995139757114</v>
+        <v>1.203149830159546</v>
       </c>
       <c r="G19">
-        <v>0.0007585987643776715</v>
+        <v>1.122564145103496</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01100666777331316</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.6521015067765461</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.5613800203529564</v>
       </c>
       <c r="L19">
-        <v>0.5261960024613899</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.121781494770445</v>
+        <v>0.4685706984757729</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0.6232321327932731</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.688275777903243</v>
+        <v>4.36762790984659</v>
       </c>
       <c r="C20">
-        <v>1.233173659435863</v>
+        <v>0.8476017382364489</v>
       </c>
       <c r="D20">
-        <v>0.07361429409721154</v>
+        <v>0.03025801496580272</v>
       </c>
       <c r="E20">
-        <v>0.0178282970665693</v>
+        <v>0.0342253901207048</v>
       </c>
       <c r="F20">
-        <v>3.897659673746375</v>
+        <v>1.241635203277781</v>
       </c>
       <c r="G20">
-        <v>0.0007543579701523493</v>
+        <v>1.159120351355682</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01264119113837481</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.666995112490838</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.5714968333548782</v>
       </c>
       <c r="L20">
-        <v>0.548211448124718</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.116053569048816</v>
+        <v>0.4868082999470147</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0.6123081196974169</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.791401912608649</v>
+        <v>4.929073143806704</v>
       </c>
       <c r="C21">
-        <v>1.414213854355353</v>
+        <v>0.9500016280570378</v>
       </c>
       <c r="D21">
-        <v>0.07652152376346066</v>
+        <v>0.03148319370159669</v>
       </c>
       <c r="E21">
-        <v>0.01790673265826115</v>
+        <v>0.03492916030740645</v>
       </c>
       <c r="F21">
-        <v>4.396675434610302</v>
+        <v>1.375836057942749</v>
       </c>
       <c r="G21">
-        <v>0.0007401285326853725</v>
+        <v>1.287102994894099</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.0187811758517249</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.7197052147608929</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.6083978416502234</v>
       </c>
       <c r="L21">
-        <v>0.6244005332216886</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.101654362732162</v>
+        <v>0.548723009520387</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0.5764252117337811</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.538638567607336</v>
+        <v>5.304624062070729</v>
       </c>
       <c r="C22">
-        <v>1.53666037117631</v>
+        <v>1.015626222827535</v>
       </c>
       <c r="D22">
-        <v>0.07881880561024701</v>
+        <v>0.03215459640171403</v>
       </c>
       <c r="E22">
-        <v>0.01798370863311316</v>
+        <v>0.0355045362184363</v>
       </c>
       <c r="F22">
-        <v>4.739961639970232</v>
+        <v>1.469294781953735</v>
       </c>
       <c r="G22">
-        <v>0.0007308095761850537</v>
+        <v>1.376942763727442</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.02324068091301257</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.7573061764094575</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.6361621610990866</v>
       </c>
       <c r="L22">
-        <v>0.6761379686066391</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.096347100521527</v>
+        <v>0.589606128019426</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0.5531838622344623</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.137137087570522</v>
+        <v>5.110520983378308</v>
       </c>
       <c r="C23">
-        <v>1.470882822101203</v>
+        <v>0.9785636515786678</v>
       </c>
       <c r="D23">
-        <v>0.07755248429392481</v>
+        <v>0.03167484790287745</v>
       </c>
       <c r="E23">
-        <v>0.01794009925667961</v>
+        <v>0.0352717508516367</v>
       </c>
       <c r="F23">
-        <v>4.554999871030986</v>
+        <v>1.422568369418087</v>
       </c>
       <c r="G23">
-        <v>0.0007357873769608309</v>
+        <v>1.332583650449124</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.02057746458306564</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.7390251928814564</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.6237322751700347</v>
       </c>
       <c r="L23">
-        <v>0.6483266573874005</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.098769638850342</v>
+        <v>0.5674956755989911</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0.5647328701260186</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.6706307940035</v>
+        <v>4.368380536463633</v>
       </c>
       <c r="C24">
-        <v>1.230274380008439</v>
+        <v>0.8429437931865493</v>
       </c>
       <c r="D24">
-        <v>0.07357268538292772</v>
+        <v>0.03005354024019269</v>
       </c>
       <c r="E24">
-        <v>0.01782741347082339</v>
+        <v>0.03433332892501362</v>
       </c>
       <c r="F24">
-        <v>3.889756938170621</v>
+        <v>1.244621936525704</v>
       </c>
       <c r="G24">
-        <v>0.0007545907048783723</v>
+        <v>1.162872670618754</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01217261973230244</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.66905683181173</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.5747177409932362</v>
       </c>
       <c r="L24">
-        <v>0.5469947844662784</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.116351030021008</v>
+        <v>0.4854572526806464</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0.6118011114390001</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6.177029123619207</v>
+        <v>3.573920687950988</v>
       </c>
       <c r="C25">
-        <v>0.9843017552819049</v>
+        <v>0.6991709012529554</v>
       </c>
       <c r="D25">
-        <v>0.07065323669822021</v>
+        <v>0.02829217111431248</v>
       </c>
       <c r="E25">
-        <v>0.01780137418074634</v>
+        <v>0.03346003579306434</v>
       </c>
       <c r="F25">
-        <v>3.230686958306478</v>
+        <v>1.060985839842118</v>
       </c>
       <c r="G25">
-        <v>0.0007749946266741837</v>
+        <v>0.9880601276331475</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.005620247891404695</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.5980143255499968</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.5258557270960935</v>
       </c>
       <c r="L25">
-        <v>0.4442733569821229</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.149937403450195</v>
+        <v>0.399349170409522</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.6665932202268223</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_6_6/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_6_6/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.007451676780704</v>
+        <v>2.84046547107755</v>
       </c>
       <c r="C2">
-        <v>0.5901755469690784</v>
+        <v>0.6308597416924613</v>
       </c>
       <c r="D2">
-        <v>0.02670544609680192</v>
+        <v>0.03003690297623507</v>
       </c>
       <c r="E2">
-        <v>0.03311226125618738</v>
+        <v>0.02972902870226068</v>
       </c>
       <c r="F2">
-        <v>0.9395419576661794</v>
+        <v>0.8506793337445657</v>
       </c>
       <c r="G2">
-        <v>0.8740709704238867</v>
+        <v>0.7520182456837148</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.00200663311653182</v>
+        <v>0.002091674385383158</v>
       </c>
       <c r="J2">
-        <v>0.5534071823134639</v>
+        <v>0.54993122336505</v>
       </c>
       <c r="K2">
-        <v>0.4987218816297556</v>
+        <v>0.4291478169766236</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.2186442384995928</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.1162276220939944</v>
       </c>
       <c r="N2">
-        <v>0.3370118389954087</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.7086055007362262</v>
+        <v>0.3438542420810222</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.7221674295761851</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.615784298627773</v>
+        <v>2.479271764660609</v>
       </c>
       <c r="C3">
-        <v>0.5196432807912856</v>
+        <v>0.5512022747940932</v>
       </c>
       <c r="D3">
-        <v>0.02578558022311839</v>
+        <v>0.02816513005988597</v>
       </c>
       <c r="E3">
-        <v>0.03282936841831674</v>
+        <v>0.02969774020503912</v>
       </c>
       <c r="F3">
-        <v>0.8555280660874161</v>
+        <v>0.7798507618045818</v>
       </c>
       <c r="G3">
-        <v>0.7944400149302027</v>
+        <v>0.6875129977005514</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.0007916647478665162</v>
+        <v>0.0009918878669363806</v>
       </c>
       <c r="J3">
-        <v>0.5222087447794053</v>
+        <v>0.5221393274306081</v>
       </c>
       <c r="K3">
-        <v>0.4783855199693789</v>
+        <v>0.4167857119556544</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.2201400049923734</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.1058455274629786</v>
       </c>
       <c r="N3">
-        <v>0.295899373799017</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7398022967325097</v>
+        <v>0.3018592277760064</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.7444794891332513</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.375339851904414</v>
+        <v>2.256844990573256</v>
       </c>
       <c r="C4">
-        <v>0.4766417258125273</v>
+        <v>0.5027013417624175</v>
       </c>
       <c r="D4">
-        <v>0.02522144106124813</v>
+        <v>0.02702422199599752</v>
       </c>
       <c r="E4">
-        <v>0.03268083637267871</v>
+        <v>0.02969950046648329</v>
       </c>
       <c r="F4">
-        <v>0.8050668859700778</v>
+        <v>0.7371009915530564</v>
       </c>
       <c r="G4">
-        <v>0.7466157498394494</v>
+        <v>0.6488098947270515</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.0004686403417446527</v>
+        <v>0.0006373048275505333</v>
       </c>
       <c r="J4">
-        <v>0.5037067074288615</v>
+        <v>0.5052321427346413</v>
       </c>
       <c r="K4">
-        <v>0.4664616329015416</v>
+        <v>0.4095165966433605</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.220973699795735</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.1003313186171546</v>
       </c>
       <c r="N4">
-        <v>0.2710090804070973</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7598232595114851</v>
+        <v>0.2764122438536134</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.7590905007012729</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.275785469511789</v>
+        <v>2.164547704734446</v>
       </c>
       <c r="C5">
-        <v>0.459654024065685</v>
+        <v>0.4835167405254595</v>
       </c>
       <c r="D5">
-        <v>0.02501923844435083</v>
+        <v>0.02659375925238905</v>
       </c>
       <c r="E5">
-        <v>0.03260676536738583</v>
+        <v>0.02968798117013627</v>
       </c>
       <c r="F5">
-        <v>0.7839347191478083</v>
+        <v>0.7190776157499172</v>
       </c>
       <c r="G5">
-        <v>0.7264368314439622</v>
+        <v>0.6323888235343418</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.0005009903008890149</v>
+        <v>0.0006453420927083897</v>
       </c>
       <c r="J5">
-        <v>0.4958491109816521</v>
+        <v>0.4979277554634365</v>
       </c>
       <c r="K5">
-        <v>0.4611131050750359</v>
+        <v>0.4060755352012748</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.2210367265829518</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.09813216352255338</v>
       </c>
       <c r="N5">
-        <v>0.2610044267314038</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7683138246539372</v>
+        <v>0.26617709770602</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.7654649031845224</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.25735473003374</v>
+        <v>2.147406958119348</v>
       </c>
       <c r="C6">
-        <v>0.4574152541804892</v>
+        <v>0.4809365396945964</v>
       </c>
       <c r="D6">
-        <v>0.02501959538437504</v>
+        <v>0.02656236910832277</v>
       </c>
       <c r="E6">
-        <v>0.03257079276021191</v>
+        <v>0.02966515884182996</v>
       </c>
       <c r="F6">
-        <v>0.7794294485643576</v>
+        <v>0.7151528262273814</v>
       </c>
       <c r="G6">
-        <v>0.7219579058162111</v>
+        <v>0.6286297953274556</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.0005985218823667537</v>
+        <v>0.0007540730951145491</v>
       </c>
       <c r="J6">
-        <v>0.4939774402445352</v>
+        <v>0.4961674678064156</v>
       </c>
       <c r="K6">
-        <v>0.4594736948609679</v>
+        <v>0.4048328774780181</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.2207351420660544</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.09757957671503448</v>
       </c>
       <c r="N6">
-        <v>0.2594185246163789</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0.7698868616567047</v>
+        <v>0.2645517798956405</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.7667813875287095</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.368791609085065</v>
+        <v>2.248474228164582</v>
       </c>
       <c r="C7">
-        <v>0.4779974444333845</v>
+        <v>0.5030017920921637</v>
       </c>
       <c r="D7">
-        <v>0.02531192138556193</v>
+        <v>0.02720585685566945</v>
       </c>
       <c r="E7">
-        <v>0.03261417353134277</v>
+        <v>0.02967423468903707</v>
       </c>
       <c r="F7">
-        <v>0.8020129575294703</v>
+        <v>0.7325376490324089</v>
       </c>
       <c r="G7">
-        <v>0.7432155650084837</v>
+        <v>0.6495620208741428</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.0006867704655642015</v>
+        <v>0.0008971884370785332</v>
       </c>
       <c r="J7">
-        <v>0.5020250181099328</v>
+        <v>0.4965548758192853</v>
       </c>
       <c r="K7">
-        <v>0.464313090683774</v>
+        <v>0.4068253124249459</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.2197803672696388</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.09949448430806385</v>
       </c>
       <c r="N7">
-        <v>0.2710669825496126</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0.7603637750038601</v>
+        <v>0.2763380884429836</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.7601894307000414</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.865391383655776</v>
+        <v>2.702106632577966</v>
       </c>
       <c r="C8">
-        <v>0.5679056253560475</v>
+        <v>0.6018497997660575</v>
       </c>
       <c r="D8">
-        <v>0.02651430376570829</v>
+        <v>0.02980616848140016</v>
       </c>
       <c r="E8">
-        <v>0.03292262061055595</v>
+        <v>0.02974751568195533</v>
       </c>
       <c r="F8">
-        <v>0.9066374529914896</v>
+        <v>0.8168676037129217</v>
       </c>
       <c r="G8">
-        <v>0.8422098176615407</v>
+        <v>0.7386182565149113</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.001744106148336755</v>
+        <v>0.001934178033076606</v>
       </c>
       <c r="J8">
-        <v>0.5404135842877764</v>
+        <v>0.5150063914342837</v>
       </c>
       <c r="K8">
-        <v>0.4888303949944159</v>
+        <v>0.4197449974859708</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.2170334266059299</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.1107710034893223</v>
       </c>
       <c r="N8">
-        <v>0.3230133509528628</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0.7198145511773184</v>
+        <v>0.3291244983164603</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.7318729440195284</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.850591255062852</v>
+        <v>3.604350642075531</v>
       </c>
       <c r="C9">
-        <v>0.7443970188306253</v>
+        <v>0.8004852904446977</v>
       </c>
       <c r="D9">
-        <v>0.0287092352710161</v>
+        <v>0.03449087548617413</v>
       </c>
       <c r="E9">
-        <v>0.03385428064155604</v>
+        <v>0.03004743394726095</v>
       </c>
       <c r="F9">
-        <v>1.126919980922537</v>
+        <v>0.9999332333159003</v>
       </c>
       <c r="G9">
-        <v>1.051688111780095</v>
+        <v>0.9126650959289293</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.007204234549444521</v>
+        <v>0.006374876038394817</v>
       </c>
       <c r="J9">
-        <v>0.6242738508423002</v>
+        <v>0.5805949934593713</v>
       </c>
       <c r="K9">
-        <v>0.5455899076972059</v>
+        <v>0.4541253479424086</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2136820092485969</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.1419590091211234</v>
       </c>
       <c r="N9">
-        <v>0.4277306977711959</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0.6466120305121414</v>
+        <v>0.4357875778734694</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.6812950644286389</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.575268486484674</v>
+        <v>4.250324937175321</v>
       </c>
       <c r="C10">
-        <v>0.877707012469557</v>
+        <v>0.943864242915339</v>
       </c>
       <c r="D10">
-        <v>0.03038301288423639</v>
+        <v>0.038561261062803</v>
       </c>
       <c r="E10">
-        <v>0.03464876677844586</v>
+        <v>0.03055413356161729</v>
       </c>
       <c r="F10">
-        <v>1.295326447217832</v>
+        <v>1.12824177588719</v>
       </c>
       <c r="G10">
-        <v>1.211750145889852</v>
+        <v>1.068988813047781</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.01405915016917181</v>
+        <v>0.01174318367271709</v>
       </c>
       <c r="J10">
-        <v>0.6894325038192335</v>
+        <v>0.5891782736655671</v>
       </c>
       <c r="K10">
-        <v>0.5899939576089608</v>
+        <v>0.4761086125101954</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2089157657461485</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.1673458277187549</v>
       </c>
       <c r="N10">
-        <v>0.5073041078426002</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0.5980184479595465</v>
+        <v>0.5158262197041381</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.6522642186387415</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.89727868247968</v>
+        <v>4.512221198110694</v>
       </c>
       <c r="C11">
-        <v>0.9419122251153453</v>
+        <v>1.0009705646643</v>
       </c>
       <c r="D11">
-        <v>0.0313163454724652</v>
+        <v>0.04158580931745348</v>
       </c>
       <c r="E11">
-        <v>0.03493738943620883</v>
+        <v>0.03108089036532213</v>
       </c>
       <c r="F11">
-        <v>1.369439676347497</v>
+        <v>1.165629855369517</v>
       </c>
       <c r="G11">
-        <v>1.281422867899181</v>
+        <v>1.179360073135626</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.0181734753231515</v>
+        <v>0.01495664845506894</v>
       </c>
       <c r="J11">
-        <v>0.717590909758087</v>
+        <v>0.5252450470030396</v>
       </c>
       <c r="K11">
-        <v>0.6077379583329332</v>
+        <v>0.4757282439945882</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2029428916566829</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.1754070457543691</v>
       </c>
       <c r="N11">
-        <v>0.5445112553277056</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0.5781473895374667</v>
+        <v>0.5517630861049412</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.6468749058165599</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.024224206670908</v>
+        <v>4.612786240245953</v>
       </c>
       <c r="C12">
-        <v>0.9649342722320853</v>
+        <v>1.019740867365357</v>
       </c>
       <c r="D12">
-        <v>0.03158218559017101</v>
+        <v>0.04275868996422361</v>
       </c>
       <c r="E12">
-        <v>0.0351089224475416</v>
+        <v>0.03138572059749656</v>
       </c>
       <c r="F12">
-        <v>1.400324642350967</v>
+        <v>1.179915812549041</v>
       </c>
       <c r="G12">
-        <v>1.310940282735288</v>
+        <v>1.229964449168307</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.01969450684864604</v>
+        <v>0.01603515651372867</v>
       </c>
       <c r="J12">
-        <v>0.7298300260904114</v>
+        <v>0.4958881077897104</v>
       </c>
       <c r="K12">
-        <v>0.6164421818459687</v>
+        <v>0.4762070019976861</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2009168023147225</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.1787815537608068</v>
       </c>
       <c r="N12">
-        <v>0.5585470662830971</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0.5702662427050988</v>
+        <v>0.565120850233285</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.64489739640414</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.997835122167828</v>
+        <v>4.592161107617187</v>
       </c>
       <c r="C13">
-        <v>0.9596795278478396</v>
+        <v>1.015461822617226</v>
       </c>
       <c r="D13">
-        <v>0.03150694708783064</v>
+        <v>0.04247607621660876</v>
       </c>
       <c r="E13">
-        <v>0.03508320413133781</v>
+        <v>0.03132754894520851</v>
       </c>
       <c r="F13">
-        <v>1.394154958851757</v>
+        <v>1.177377656763213</v>
       </c>
       <c r="G13">
-        <v>1.305129652529502</v>
+        <v>1.219299759717387</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.01932928458688998</v>
+        <v>0.01575672165385544</v>
       </c>
       <c r="J13">
-        <v>0.7274665091943575</v>
+        <v>0.5026675837268044</v>
       </c>
       <c r="K13">
-        <v>0.6149282172955424</v>
+        <v>0.4764511403819256</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2014726043935333</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.1781950342827727</v>
       </c>
       <c r="N13">
-        <v>0.5554855466760529</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0.5718435207735268</v>
+        <v>0.5622149663096252</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.6450937504251897</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.908125688028974</v>
+        <v>4.520936986025845</v>
       </c>
       <c r="C14">
-        <v>0.9436802277184597</v>
+        <v>1.00241557250439</v>
       </c>
       <c r="D14">
-        <v>0.03133058456509374</v>
+        <v>0.04166953235615978</v>
       </c>
       <c r="E14">
-        <v>0.03495626182785294</v>
+        <v>0.03110907103972593</v>
       </c>
       <c r="F14">
-        <v>1.372184776204932</v>
+        <v>1.16703678222926</v>
       </c>
       <c r="G14">
-        <v>1.284082847376453</v>
+        <v>1.183614991687477</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.01828211195118623</v>
+        <v>0.01502529231783534</v>
       </c>
       <c r="J14">
-        <v>0.7187132655922142</v>
+        <v>0.5230367490539436</v>
       </c>
       <c r="K14">
-        <v>0.6086069835925301</v>
+        <v>0.4759167257886929</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2028278225220461</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.1757444561681325</v>
       </c>
       <c r="N14">
-        <v>0.545649441106363</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.5774480506272681</v>
+        <v>0.5528497726738664</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.6466150135928643</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.851319835916968</v>
+        <v>4.475145822961508</v>
       </c>
       <c r="C15">
-        <v>0.9344695728991042</v>
+        <v>0.9948343889484477</v>
       </c>
       <c r="D15">
-        <v>0.03125794222799527</v>
+        <v>0.04123950378619412</v>
       </c>
       <c r="E15">
-        <v>0.03485665459465892</v>
+        <v>0.03096308105548218</v>
       </c>
       <c r="F15">
-        <v>1.357795283572628</v>
+        <v>1.15954824824648</v>
       </c>
       <c r="G15">
-        <v>1.270131994179621</v>
+        <v>1.161575917738361</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.01772467938628708</v>
+        <v>0.01467632399185348</v>
       </c>
       <c r="J15">
-        <v>0.7128239688806559</v>
+        <v>0.534310944620529</v>
       </c>
       <c r="K15">
-        <v>0.6040329097489021</v>
+        <v>0.4748615112297543</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2034048702917204</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.173955431302204</v>
       </c>
       <c r="N15">
-        <v>0.539705558335541</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0.5811231646620705</v>
+        <v>0.5471670026587105</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.6480276736306507</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.53838692746308</v>
+        <v>4.217968800166318</v>
       </c>
       <c r="C16">
-        <v>0.8783170628450989</v>
+        <v>0.9449278141311197</v>
       </c>
       <c r="D16">
-        <v>0.03061684157322375</v>
+        <v>0.03875049776112149</v>
       </c>
       <c r="E16">
-        <v>0.0344405113754469</v>
+        <v>0.03036223727408505</v>
       </c>
       <c r="F16">
-        <v>1.282293483131397</v>
+        <v>1.118066547383464</v>
       </c>
       <c r="G16">
-        <v>1.197942142621798</v>
+        <v>1.054082921139027</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.01434079297407642</v>
+        <v>0.01224672118307968</v>
       </c>
       <c r="J16">
-        <v>0.6829689630534972</v>
+        <v>0.5883981775734242</v>
       </c>
       <c r="K16">
-        <v>0.5827613398377238</v>
+        <v>0.470835044839454</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2074124194850491</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.1647062388496963</v>
       </c>
       <c r="N16">
-        <v>0.5054440130041229</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0.6011303640093857</v>
+        <v>0.5140160084894063</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.6555927960468182</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.346882906311862</v>
+        <v>4.055105855566183</v>
       </c>
       <c r="C17">
-        <v>0.8440781900502543</v>
+        <v>0.9119482049605381</v>
       </c>
       <c r="D17">
-        <v>0.0302231133045936</v>
+        <v>0.03744114564014822</v>
       </c>
       <c r="E17">
-        <v>0.03419513399726171</v>
+        <v>0.0300839800066921</v>
       </c>
       <c r="F17">
-        <v>1.236598478942966</v>
+        <v>1.089059844324268</v>
       </c>
       <c r="G17">
-        <v>1.154274060997722</v>
+        <v>0.9982420410418626</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.01246500022610331</v>
+        <v>0.01087211721284298</v>
       </c>
       <c r="J17">
-        <v>0.6649822932365055</v>
+        <v>0.6085419028017327</v>
       </c>
       <c r="K17">
-        <v>0.5700054770679372</v>
+        <v>0.466791869090855</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2092963983761464</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.1585638810173471</v>
       </c>
       <c r="N17">
-        <v>0.4846104963931595</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0.6136996806072439</v>
+        <v>0.4935323184117806</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.6616779747272972</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.24166582401034</v>
+        <v>3.964125557984119</v>
       </c>
       <c r="C18">
-        <v>0.8230075566597748</v>
+        <v>0.8906295188791091</v>
       </c>
       <c r="D18">
-        <v>0.02990724070370376</v>
+        <v>0.03665187577371753</v>
       </c>
       <c r="E18">
-        <v>0.03411491357744723</v>
+        <v>0.03000370974539202</v>
       </c>
       <c r="F18">
-        <v>1.21301468579918</v>
+        <v>1.073385026502905</v>
       </c>
       <c r="G18">
-        <v>1.132174004369915</v>
+        <v>0.9720703041282235</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.01125180671923953</v>
+        <v>0.009861141995782141</v>
       </c>
       <c r="J18">
-        <v>0.6561534004934799</v>
+        <v>0.6162923997121652</v>
       </c>
       <c r="K18">
-        <v>0.5646077652203161</v>
+        <v>0.4654854151275103</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2107442135545519</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.1554938191521167</v>
       </c>
       <c r="N18">
-        <v>0.4725225379603017</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0.62049922218592</v>
+        <v>0.4815328413216804</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.6648286810203032</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.202381162057293</v>
+        <v>3.929569025798969</v>
       </c>
       <c r="C19">
-        <v>0.8170015892661127</v>
+        <v>0.8844390545914109</v>
       </c>
       <c r="D19">
-        <v>0.02986906177489246</v>
+        <v>0.03648079152244321</v>
       </c>
       <c r="E19">
-        <v>0.03404407446387481</v>
+        <v>0.02994344831589224</v>
       </c>
       <c r="F19">
-        <v>1.203149830159546</v>
+        <v>1.066122990249397</v>
       </c>
       <c r="G19">
-        <v>1.122564145103496</v>
+        <v>0.9618141189053091</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.01100666777331316</v>
+        <v>0.009723829986750587</v>
       </c>
       <c r="J19">
-        <v>0.6521015067765461</v>
+        <v>0.6170489467379099</v>
       </c>
       <c r="K19">
-        <v>0.5613800203529564</v>
+        <v>0.4637341092435463</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2107527736918655</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.1539531136840395</v>
       </c>
       <c r="N19">
-        <v>0.4685706984757729</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0.6232321327932731</v>
+        <v>0.4775905341013669</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.6666180912144739</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.36762790984659</v>
+        <v>4.072981256465027</v>
       </c>
       <c r="C20">
-        <v>0.8476017382364489</v>
+        <v>0.9154274369718678</v>
       </c>
       <c r="D20">
-        <v>0.03025801496580272</v>
+        <v>0.03756417499082687</v>
       </c>
       <c r="E20">
-        <v>0.0342253901207048</v>
+        <v>0.03011427315418125</v>
       </c>
       <c r="F20">
-        <v>1.241635203277781</v>
+        <v>1.092456005704619</v>
       </c>
       <c r="G20">
-        <v>1.159120351355682</v>
+        <v>1.004026488390792</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.01264119113837481</v>
+        <v>0.01099330944446031</v>
       </c>
       <c r="J20">
-        <v>0.666995112490838</v>
+        <v>0.6070195826238773</v>
       </c>
       <c r="K20">
-        <v>0.5714968333548782</v>
+        <v>0.4674037058812175</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.209162650566693</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.1592828270804816</v>
       </c>
       <c r="N20">
-        <v>0.4868082999470147</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.6123081196974169</v>
+        <v>0.4957050587736092</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.660912514209798</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.929073143806704</v>
+        <v>4.52860722932769</v>
       </c>
       <c r="C21">
-        <v>0.9500016280570378</v>
+        <v>1.003815772477338</v>
       </c>
       <c r="D21">
-        <v>0.03148319370159669</v>
+        <v>0.04237014767795699</v>
       </c>
       <c r="E21">
-        <v>0.03492916030740645</v>
+        <v>0.03124465184220426</v>
       </c>
       <c r="F21">
-        <v>1.375836057942749</v>
+        <v>1.161229671877535</v>
       </c>
       <c r="G21">
-        <v>1.287102994894099</v>
+        <v>1.206075496450353</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.0187811758517249</v>
+        <v>0.01545335344277188</v>
       </c>
       <c r="J21">
-        <v>0.7197052147608929</v>
+        <v>0.4940047518999933</v>
       </c>
       <c r="K21">
-        <v>0.6083978416502234</v>
+        <v>0.4715470399035908</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2008572242992557</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.174598441776844</v>
       </c>
       <c r="N21">
-        <v>0.548723009520387</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.5764252117337811</v>
+        <v>0.5552895357345449</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.6489148766168</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.304624062070729</v>
+        <v>4.828864858719498</v>
       </c>
       <c r="C22">
-        <v>1.015626222827535</v>
+        <v>1.058287023904739</v>
       </c>
       <c r="D22">
-        <v>0.03215459640171403</v>
+        <v>0.045597775117038</v>
       </c>
       <c r="E22">
-        <v>0.0355045362184363</v>
+        <v>0.03217595241974358</v>
       </c>
       <c r="F22">
-        <v>1.469294781953735</v>
+        <v>1.207753091121248</v>
       </c>
       <c r="G22">
-        <v>1.376942763727442</v>
+        <v>1.354126804298602</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.02324068091301257</v>
+        <v>0.01850058459753434</v>
       </c>
       <c r="J22">
-        <v>0.7573061764094575</v>
+        <v>0.4226766263679025</v>
       </c>
       <c r="K22">
-        <v>0.6361621610990866</v>
+        <v>0.4757760568497673</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1959836862803037</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.1857108047048115</v>
       </c>
       <c r="N22">
-        <v>0.589606128019426</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.5531838622344623</v>
+        <v>0.5943095747381477</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.6422485123095782</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.110520983378308</v>
+        <v>4.680786659883836</v>
       </c>
       <c r="C23">
-        <v>0.9785636515786678</v>
+        <v>1.030166399507124</v>
       </c>
       <c r="D23">
-        <v>0.03167484790287745</v>
+        <v>0.04345278812080267</v>
       </c>
       <c r="E23">
-        <v>0.0352717508516367</v>
+        <v>0.03164428771122552</v>
       </c>
       <c r="F23">
-        <v>1.422568369418087</v>
+        <v>1.190489982170661</v>
       </c>
       <c r="G23">
-        <v>1.332583650449124</v>
+        <v>1.266864035098848</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.02057746458306564</v>
+        <v>0.01657029565559132</v>
       </c>
       <c r="J23">
-        <v>0.7390251928814564</v>
+        <v>0.4763446510621492</v>
       </c>
       <c r="K23">
-        <v>0.6237322751700347</v>
+        <v>0.4775937603410725</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1999817772775039</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.1814292976146703</v>
       </c>
       <c r="N23">
-        <v>0.5674956755989911</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.5647328701260186</v>
+        <v>0.5735760567528132</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.6430625109443966</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.368380536463633</v>
+        <v>4.074394181067873</v>
       </c>
       <c r="C24">
-        <v>0.8429437931865493</v>
+        <v>0.9106565078801339</v>
       </c>
       <c r="D24">
-        <v>0.03005354024019269</v>
+        <v>0.03727580661604435</v>
       </c>
       <c r="E24">
-        <v>0.03433332892501362</v>
+        <v>0.03020529342001055</v>
       </c>
       <c r="F24">
-        <v>1.244621936525704</v>
+        <v>1.095709722243967</v>
       </c>
       <c r="G24">
-        <v>1.162872670618754</v>
+        <v>1.006792329349452</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.01217261973230244</v>
+        <v>0.01043455264593085</v>
       </c>
       <c r="J24">
-        <v>0.66905683181173</v>
+        <v>0.6103683620355582</v>
       </c>
       <c r="K24">
-        <v>0.5747177409932362</v>
+        <v>0.4704596432934736</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2104332560657873</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.1602740529012934</v>
       </c>
       <c r="N24">
-        <v>0.4854572526806464</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.6118011114390001</v>
+        <v>0.4943697045855231</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.6594731809787007</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.573920687950988</v>
+        <v>3.354628684593308</v>
       </c>
       <c r="C25">
-        <v>0.6991709012529554</v>
+        <v>0.7509128957460689</v>
       </c>
       <c r="D25">
-        <v>0.02829217111431248</v>
+        <v>0.0333132816210977</v>
       </c>
       <c r="E25">
-        <v>0.03346003579306434</v>
+        <v>0.02979675813825367</v>
       </c>
       <c r="F25">
-        <v>1.060985839842118</v>
+        <v>0.9474096681277189</v>
       </c>
       <c r="G25">
-        <v>0.9880601276331475</v>
+        <v>0.8537634967795924</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.005620247891404695</v>
+        <v>0.005280868933252414</v>
       </c>
       <c r="J25">
-        <v>0.5980143255499968</v>
+        <v>0.5699954254304771</v>
       </c>
       <c r="K25">
-        <v>0.5258557270960935</v>
+        <v>0.4423312513323197</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2138231037989229</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.1319378482444904</v>
       </c>
       <c r="N25">
-        <v>0.399349170409522</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.6665932202268223</v>
+        <v>0.4070874711498504</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.695140125490596</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
